--- a/Cout.xlsx
+++ b/Cout.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="28515" windowHeight="11325"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="28515" windowHeight="11325" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="AWG" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="182">
   <si>
     <t>Nom</t>
   </si>
@@ -49,14 +49,547 @@
   </si>
   <si>
     <t>1 *</t>
+  </si>
+  <si>
+    <t>Connecteur etanche</t>
+  </si>
+  <si>
+    <t>10 * 2 sorties</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/Connecteur-Imperm%C3%A9able-Etanche-Canaux-Voiture/dp/B00BI9WUA0/ref=sr_1_2?ie=UTF8&amp;qid=1504455587&amp;sr=8-2&amp;keywords=connecteur+etanche</t>
+  </si>
+  <si>
+    <t>10 * 3 sorties</t>
+  </si>
+  <si>
+    <t>10 * 4 sorties</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/Connecteur-Imperm%C3%A9able-Etanche-Canaux-Voiture/dp/B00BI9WUPA/ref=pd_sim_263_5?_encoding=UTF8&amp;psc=1&amp;refRID=SVXHA3X3VH77FD1J3Z2E</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/CONNECTEUR-IMPERMEABLE-ETANCHE-CANAUX-BATEAU/dp/B00PU4OA3O/ref=pd_sim_263_7?_encoding=UTF8&amp;refRID=SVXHA3X3VH77FD1J3Z2E&amp;th=1</t>
+  </si>
+  <si>
+    <t>AWG</t>
+  </si>
+  <si>
+    <t>Diamètre (mm)</t>
+  </si>
+  <si>
+    <t>Nb spires/cm</t>
+  </si>
+  <si>
+    <t>Section (mm²)</t>
+  </si>
+  <si>
+    <t>Résistance linéique (Ω/km)</t>
+  </si>
+  <si>
+    <r>
+      <t>0000 (4/0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>11.7</t>
+  </si>
+  <si>
+    <t>0.856</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>000 (3/0)</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>0.961</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>00 (2/0)</t>
+  </si>
+  <si>
+    <t>9.27</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>67.4</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0 (1/0)</t>
+  </si>
+  <si>
+    <t>8.25</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>53.5</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>7.35</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>42.4</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>6.54</t>
+  </si>
+  <si>
+    <t>1.53</t>
+  </si>
+  <si>
+    <t>33.6</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>5.83</t>
+  </si>
+  <si>
+    <t>1.72</t>
+  </si>
+  <si>
+    <t>26.7</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>5.19</t>
+  </si>
+  <si>
+    <t>1.93</t>
+  </si>
+  <si>
+    <t>21.2</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>4.62</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>16.8</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>4.12</t>
+  </si>
+  <si>
+    <t>2.43</t>
+  </si>
+  <si>
+    <t>13.3</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>3.66</t>
+  </si>
+  <si>
+    <t>2.73</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>1.63</t>
+  </si>
+  <si>
+    <t>3.26</t>
+  </si>
+  <si>
+    <t>3.06</t>
+  </si>
+  <si>
+    <t>8.37</t>
+  </si>
+  <si>
+    <t>2.06</t>
+  </si>
+  <si>
+    <t>2.91</t>
+  </si>
+  <si>
+    <t>3.44</t>
+  </si>
+  <si>
+    <t>6.63</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>2.59</t>
+  </si>
+  <si>
+    <t>3.86</t>
+  </si>
+  <si>
+    <t>5.26</t>
+  </si>
+  <si>
+    <t>3.28</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>4.34</t>
+  </si>
+  <si>
+    <t>4.17</t>
+  </si>
+  <si>
+    <t>4.13</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>4.87</t>
+  </si>
+  <si>
+    <t>3.31</t>
+  </si>
+  <si>
+    <t>5.21</t>
+  </si>
+  <si>
+    <t>1.83</t>
+  </si>
+  <si>
+    <t>5.47</t>
+  </si>
+  <si>
+    <t>2.62</t>
+  </si>
+  <si>
+    <t>6.57</t>
+  </si>
+  <si>
+    <t>6.14</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>8.29</t>
+  </si>
+  <si>
+    <t>1.45</t>
+  </si>
+  <si>
+    <t>6.90</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>1.29</t>
+  </si>
+  <si>
+    <t>7.75</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>13.20</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>8.70</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>16.60</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>9.77</t>
+  </si>
+  <si>
+    <t>0.823</t>
+  </si>
+  <si>
+    <t>20.90</t>
+  </si>
+  <si>
+    <t>0.912</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>0.653</t>
+  </si>
+  <si>
+    <t>26.40</t>
+  </si>
+  <si>
+    <t>0.812</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>0.518</t>
+  </si>
+  <si>
+    <t>33.30</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>13.8</t>
+  </si>
+  <si>
+    <t>0.410</t>
+  </si>
+  <si>
+    <t>41.99</t>
+  </si>
+  <si>
+    <t>0.644</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>0.326</t>
+  </si>
+  <si>
+    <t>52.95</t>
+  </si>
+  <si>
+    <t>0.573</t>
+  </si>
+  <si>
+    <t>17.4</t>
+  </si>
+  <si>
+    <t>0.258</t>
+  </si>
+  <si>
+    <t>66.80</t>
+  </si>
+  <si>
+    <t>0.511</t>
+  </si>
+  <si>
+    <t>19.6</t>
+  </si>
+  <si>
+    <t>0.205</t>
+  </si>
+  <si>
+    <t>84.20</t>
+  </si>
+  <si>
+    <t>0.455</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>0.162</t>
+  </si>
+  <si>
+    <t>0.405</t>
+  </si>
+  <si>
+    <t>24.7</t>
+  </si>
+  <si>
+    <t>0.129</t>
+  </si>
+  <si>
+    <t>0.361</t>
+  </si>
+  <si>
+    <t>27.7</t>
+  </si>
+  <si>
+    <t>0.102</t>
+  </si>
+  <si>
+    <t>0.321</t>
+  </si>
+  <si>
+    <t>31.1</t>
+  </si>
+  <si>
+    <t>0.0810</t>
+  </si>
+  <si>
+    <t>0.286</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>0.0642</t>
+  </si>
+  <si>
+    <t>0.255</t>
+  </si>
+  <si>
+    <t>39.3</t>
+  </si>
+  <si>
+    <t>0.0509</t>
+  </si>
+  <si>
+    <t>0.227</t>
+  </si>
+  <si>
+    <t>44.1</t>
+  </si>
+  <si>
+    <t>0.0404</t>
+  </si>
+  <si>
+    <t>0.202</t>
+  </si>
+  <si>
+    <t>49.5</t>
+  </si>
+  <si>
+    <t>0.0320</t>
+  </si>
+  <si>
+    <t>0.180</t>
+  </si>
+  <si>
+    <t>55.6</t>
+  </si>
+  <si>
+    <t>0.0254</t>
+  </si>
+  <si>
+    <t>0.160</t>
+  </si>
+  <si>
+    <t>62.4</t>
+  </si>
+  <si>
+    <t>0.0201</t>
+  </si>
+  <si>
+    <t>0.143</t>
+  </si>
+  <si>
+    <t>70.1</t>
+  </si>
+  <si>
+    <t>0.0160</t>
+  </si>
+  <si>
+    <t>0.127</t>
+  </si>
+  <si>
+    <t>78.7</t>
+  </si>
+  <si>
+    <t>0.0127</t>
+  </si>
+  <si>
+    <t>0.113</t>
+  </si>
+  <si>
+    <t>88.4</t>
+  </si>
+  <si>
+    <t>0.0100</t>
+  </si>
+  <si>
+    <t>0.101</t>
+  </si>
+  <si>
+    <t>99.3</t>
+  </si>
+  <si>
+    <t>0.00797</t>
+  </si>
+  <si>
+    <t>0.0897</t>
+  </si>
+  <si>
+    <t>0.00632</t>
+  </si>
+  <si>
+    <t>0.0799</t>
+  </si>
+  <si>
+    <t>0.00501</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -84,8 +617,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,24 +1071,834 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>5.41</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20:E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3">
+        <v>107</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>18</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>19</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>20</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>21</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>22</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>23</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>24</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>25</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>26</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" s="3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>27</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>28</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" s="3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>29</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" s="3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>30</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F35" s="3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>31</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" s="3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>32</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F37" s="3">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>33</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38" s="3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>34</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="3">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <v>35</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>36</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <v>37</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>38</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <v>39</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="3">
+        <v>111</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
+        <v>40</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" s="3">
+        <v>125</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F45" s="3">
+        <v>3441</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Cout.xlsx
+++ b/Cout.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="28515" windowHeight="11325" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="28515" windowHeight="11325"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Prix" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="AWG" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="207">
   <si>
     <t>Nom</t>
   </si>
@@ -574,6 +574,81 @@
   </si>
   <si>
     <t>0.00501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10* Kit Connecteur Prise Imperméable Etanche 1.5mm 4 Canaux Pour Voiture Bateau </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10* Paires Connecteur DC Mâle + Femelle Prise Alimentation pour CCTV DVR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20* 2 poles de distance de 5mm Bornier a vis de PCB 8A 250V </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1* 12V DC 1/2" Electrique Electrovanne d'eau Air Normalement Fermé </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1* Aukru® Bloc d'alimentation adaptateur secteur 12V 2A 24W avec cordon d'alimentation prise UE pour ordinateur portable, imprimante, numériseur, routeur,télécopieurs, TFT, écran LCD et de nombreux appareils </t>
+  </si>
+  <si>
+    <t>1* Kit de 5 Pinces de précision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20* 5x7 4x6 3x7 2x8CM Double côté Prototype Universel PCB Carte Circuit planche </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100* Gaine thermodurcissable thermo retractable thermo-retractable Ratio 2:1 </t>
+  </si>
+  <si>
+    <t>1* Fer à Souder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 * Lunar Box Boîte de rangement/pêche avec 4 compartiments réglables </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 * IRF540N Triac - conforme à la norme RoHS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 * DC12V G1/2 Solenoide Electrovanne Soupape d'Admission Normalement Ferme Pour Air Eau </t>
+  </si>
+  <si>
+    <t>1* Carte Mémoire microSDHC SanDisk Ultra 16GB (Nouvelle Version) avec Vitesse de Lecture Allant jusqu'à 80MB/S, Classe 10 FFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1* Aukru 1,5M - Câble HDMI 1.4a / 2.0 | compatible Raspberry pi XBOX 360 PS3/4 Blu-Ray HDTV | Haute Vitesse Compatible avec Ethernet| 3D 4K Ultra HD 2160p - FULL HD 1080p | HDMI vers HDMI | - Noir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1* Aukru Raspberry Pi 3 Alimentation 5V 3000mA avec interrupteur 150cm Câble longueur - Noir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1* Elegoo Arduino-Compatible Carte UNO R3 Starter Kit de Débutant avec Guide d’Utilisation Français Kit d'apprentissage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1* Raspberry Pi Carte Mère 3 Model B Quad Core CPU 1.2 GHz 1 Go RAM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1* SODIAL (R) Capteur de debit Capteur de debit de l'eau Debitmetre salle de controle des eaux 1-30L / min 2.0MPa </t>
+  </si>
+  <si>
+    <t>Livraison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 * SODIAL(R) P / N B-30-1000 200M 30AWG 8 ligne melange coloree </t>
+  </si>
+  <si>
+    <t>TVA</t>
+  </si>
+  <si>
+    <t>4 * STP16NF06 Transistor N-MOSFET unipolar 60V 16A 45W TO220</t>
+  </si>
+  <si>
+    <t>1* 10 cables colorés 0,6mm 5metre portier à bricomarché</t>
+  </si>
+  <si>
+    <t>1* cable rouge 1,5mm² 5m</t>
+  </si>
+  <si>
+    <t>1* cable noir 1,5mm² 5m</t>
   </si>
 </sst>
 </file>
@@ -617,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -628,11 +703,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -640,6 +776,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B1:F45" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+  <autoFilter ref="B1:F45"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="AWG" dataDxfId="6"/>
+    <tableColumn id="2" name="Diamètre (mm)" dataDxfId="5"/>
+    <tableColumn id="3" name="Nb spires/cm" dataDxfId="4"/>
+    <tableColumn id="4" name="Section (mm²)" dataDxfId="1"/>
+    <tableColumn id="5" name="Résistance linéique (Ω/km)" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -929,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,12 +1090,12 @@
     <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -956,10 +1106,16 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -969,12 +1125,12 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <f>C3*D3</f>
+      <c r="G3">
+        <f>(C3*D3)+E3+F3</f>
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -984,12 +1140,12 @@
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E9" si="0">C4*D4</f>
+      <c r="G4">
+        <f t="shared" ref="G4:G34" si="0">(C4*D4)+E4+F4</f>
         <v>3.7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -999,12 +1155,12 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -1014,12 +1170,12 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -1029,12 +1185,12 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <f t="shared" si="0"/>
         <v>2.85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -1044,12 +1200,12 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <f t="shared" si="0"/>
         <v>1.7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -1059,13 +1215,383 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <f t="shared" si="0"/>
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10">
+        <v>5.41</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11">
+        <v>2.8</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12">
+        <v>1.97</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13">
+        <v>3.59</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14">
+        <v>8.99</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>3.99</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15">
+        <v>13.3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16">
+        <v>7.92</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17">
+        <v>4.07</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18">
+        <v>20.99</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19">
+        <v>17.5</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20">
+        <v>3.41</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21">
+        <v>2.09</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>3.56</v>
+      </c>
+      <c r="F21">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22">
+        <v>5.97</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24">
+        <v>5.99</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25">
+        <v>11.99</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26">
+        <v>29.99</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27">
+        <v>43.26</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>43.26</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28">
+        <v>4.54</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29">
+        <v>5.23</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30">
+        <v>8.5</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31">
+        <v>3.25</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32">
+        <v>2.85</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1078,6 +1604,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -1126,14 +1655,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20:E21"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="6" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1146,7 +1681,7 @@
       <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1163,7 +1698,7 @@
       <c r="E2" s="3">
         <v>107</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1180,7 +1715,7 @@
       <c r="E3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1197,7 +1732,7 @@
       <c r="E4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1214,7 +1749,7 @@
       <c r="E5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1231,7 +1766,7 @@
       <c r="E6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1248,7 +1783,7 @@
       <c r="E7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1265,7 +1800,7 @@
       <c r="E8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1282,7 +1817,7 @@
       <c r="E9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1299,7 +1834,7 @@
       <c r="E10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1316,7 +1851,7 @@
       <c r="E11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1333,7 +1868,7 @@
       <c r="E12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1350,7 +1885,7 @@
       <c r="E13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1367,7 +1902,7 @@
       <c r="E14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1384,7 +1919,7 @@
       <c r="E15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1401,7 +1936,7 @@
       <c r="E16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="5" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1418,7 +1953,7 @@
       <c r="E17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1435,7 +1970,7 @@
       <c r="E18" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="5" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1452,7 +1987,7 @@
       <c r="E19" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="5" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1469,7 +2004,7 @@
       <c r="E20" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1486,7 +2021,7 @@
       <c r="E21" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="5" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1503,7 +2038,7 @@
       <c r="E22" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="5" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1520,7 +2055,7 @@
       <c r="E23" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="5" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1537,7 +2072,7 @@
       <c r="E24" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="5" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1554,7 +2089,7 @@
       <c r="E25" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="5" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1571,7 +2106,7 @@
       <c r="E26" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="5" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1588,7 +2123,7 @@
       <c r="E27" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="6" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1605,7 +2140,7 @@
       <c r="E28" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="6" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1622,7 +2157,7 @@
       <c r="E29" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="6" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1639,7 +2174,7 @@
       <c r="E30" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="6">
         <v>106</v>
       </c>
     </row>
@@ -1656,7 +2191,7 @@
       <c r="E31" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="6">
         <v>134</v>
       </c>
     </row>
@@ -1673,7 +2208,7 @@
       <c r="E32" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="6">
         <v>169</v>
       </c>
     </row>
@@ -1690,7 +2225,7 @@
       <c r="E33" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="6">
         <v>213</v>
       </c>
     </row>
@@ -1707,7 +2242,7 @@
       <c r="E34" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="6">
         <v>268</v>
       </c>
     </row>
@@ -1724,7 +2259,7 @@
       <c r="E35" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="6">
         <v>339</v>
       </c>
     </row>
@@ -1741,7 +2276,7 @@
       <c r="E36" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="6">
         <v>427</v>
       </c>
     </row>
@@ -1758,7 +2293,7 @@
       <c r="E37" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="6">
         <v>538</v>
       </c>
     </row>
@@ -1775,7 +2310,7 @@
       <c r="E38" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="6">
         <v>679</v>
       </c>
     </row>
@@ -1792,7 +2327,7 @@
       <c r="E39" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="6">
         <v>856</v>
       </c>
     </row>
@@ -1809,7 +2344,7 @@
       <c r="E40" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="6">
         <v>1079</v>
       </c>
     </row>
@@ -1826,7 +2361,7 @@
       <c r="E41" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="6">
         <v>1361</v>
       </c>
     </row>
@@ -1843,7 +2378,7 @@
       <c r="E42" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="6">
         <v>1716</v>
       </c>
     </row>
@@ -1860,7 +2395,7 @@
       <c r="E43" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="6">
         <v>2164</v>
       </c>
     </row>
@@ -1877,7 +2412,7 @@
       <c r="E44" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="6">
         <v>2729</v>
       </c>
     </row>
@@ -1894,11 +2429,14 @@
       <c r="E45" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="6">
         <v>3441</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>